--- a/biology/Botanique/Myrtillocactus_geometrizans/Myrtillocactus_geometrizans.xlsx
+++ b/biology/Botanique/Myrtillocactus_geometrizans/Myrtillocactus_geometrizans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrtillocactus geometrizans, aussi appelé Chandelle bleue, est une espèce de plantes à fleurs de la famille des Cactaceae (les cactus), native du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus peut atteindre 5 m de hauteur, et porte des branches en forme de candélabres (d'où le nom de 'chandelle'). Les branches sont fines (environ 10 cm de diamètre), ont habituellement 5 (parfois 6) côtes portant des aréoles espacées de quelques cm. Les fleurs sont d'un blanc crémeux. Les fruits sont des baies rouge foncé (d'où le nom latin 'cactus à myrtille').
 </t>
@@ -542,7 +556,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus est fréquemment cultivé au Mexique pour ses fruits. Le cultivar fukurokuryuzinboku ('seins tombants') est populaire au Japon.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit d'abord par Ludwig Karl Georg Pfeiffer en 1837 sous le nom de Cereus geometrizans[1], puis reclassifié en 1897 par Michelangelo Console[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit d'abord par Ludwig Karl Georg Pfeiffer en 1837 sous le nom de Cereus geometrizans, puis reclassifié en 1897 par Michelangelo Console.
 </t>
         </is>
       </c>
